--- a/2. wait_cp/2) 2017-08-27_wait_cpdiff.xlsx
+++ b/2. wait_cp/2) 2017-08-27_wait_cpdiff.xlsx
@@ -1,43 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>총 평균 매칭 시간</t>
+  </si>
+  <si>
+    <t>평균 AI 매칭 시간</t>
+  </si>
+  <si>
+    <t>평균 유저 매칭 시간</t>
+  </si>
+  <si>
+    <t>매칭 성공률(%)</t>
+  </si>
+  <si>
+    <t>총 평균 점수 차이</t>
+  </si>
+  <si>
+    <t>평균 AI 점수 차이</t>
+  </si>
+  <si>
+    <t>평균 유저 점수 차이</t>
+  </si>
   <si>
     <t>cur_point_cat</t>
-  </si>
-  <si>
-    <t>총 평균 매칭 시간</t>
-  </si>
-  <si>
-    <t>평균 AI 매칭 시간</t>
-  </si>
-  <si>
-    <t>평균 유저 매칭 시간</t>
-  </si>
-  <si>
-    <t>매칭 성공률(%)</t>
-  </si>
-  <si>
-    <t>총 평균 점수 차이</t>
-  </si>
-  <si>
-    <t>평균 AI 점수 차이</t>
-  </si>
-  <si>
-    <t>평균 유저 점수 차이</t>
   </si>
   <si>
     <t>01) 0</t>
@@ -122,22 +122,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -152,26 +156,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -459,90 +472,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="s"/>
-      <c r="E2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="F2" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="G2" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="H2" t="s"/>
+      <c r="E2">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2">
+        <v>30.2</v>
+      </c>
+      <c r="G2">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3">
+        <v>0.9</v>
+      </c>
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>1.02</v>
+      </c>
+      <c r="F3">
+        <v>34.3</v>
+      </c>
+      <c r="G3">
         <v>34.1</v>
       </c>
-      <c r="G3" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>61.3</v>
       </c>
     </row>
@@ -550,25 +555,25 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>6.4</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2.6</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.86</v>
       </c>
-      <c r="F4" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="F4">
+        <v>42.4</v>
+      </c>
+      <c r="G4">
+        <v>43.2</v>
+      </c>
+      <c r="H4">
         <v>37.6</v>
       </c>
     </row>
@@ -576,25 +581,25 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>9.699999999999999</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>11.4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4.6</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5">
+        <v>0.97</v>
+      </c>
+      <c r="F5">
         <v>52.1</v>
       </c>
-      <c r="G5" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
         <v>58.5</v>
       </c>
     </row>
@@ -602,25 +607,25 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
         <v>13.2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>3.8</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="G6" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="F6">
+        <v>62.3</v>
+      </c>
+      <c r="G6">
+        <v>49</v>
+      </c>
+      <c r="H6">
         <v>104.4</v>
       </c>
     </row>
@@ -628,25 +633,25 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>12.2</v>
+      </c>
+      <c r="C7">
         <v>14.8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>5.2</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="F7" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="E7">
+        <v>0.9</v>
+      </c>
+      <c r="F7">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="G7">
+        <v>54.5</v>
+      </c>
+      <c r="H7">
         <v>117.6</v>
       </c>
     </row>
@@ -654,25 +659,25 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>13.4</v>
+      </c>
+      <c r="C8">
         <v>16.3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="F8" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="G8" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="E8">
+        <v>0.88</v>
+      </c>
+      <c r="F8">
+        <v>95.2</v>
+      </c>
+      <c r="G8">
+        <v>48.7</v>
+      </c>
+      <c r="H8">
         <v>212.5</v>
       </c>
     </row>
@@ -680,25 +685,25 @@
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>15.2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>17.6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>8.1</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9">
+        <v>0.91</v>
+      </c>
+      <c r="F9">
         <v>94.2</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>45.6</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>235.5</v>
       </c>
     </row>
@@ -706,51 +711,51 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10">
+        <v>13.3</v>
+      </c>
+      <c r="C10">
         <v>16.1</v>
       </c>
-      <c r="D10" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="F10" t="n">
-        <v>123.4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>258.9</v>
+      <c r="D10">
+        <v>7.8</v>
+      </c>
+      <c r="E10">
+        <v>0.93</v>
+      </c>
+      <c r="F10">
+        <v>129.8</v>
+      </c>
+      <c r="G10">
+        <v>53</v>
+      </c>
+      <c r="H10">
+        <v>280.3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="n">
-        <v>16</v>
-      </c>
-      <c r="C11" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="B11">
+        <v>16.6</v>
+      </c>
+      <c r="C11">
+        <v>20.6</v>
+      </c>
+      <c r="D11">
         <v>10.2</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.87</v>
       </c>
-      <c r="F11" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="F11">
+        <v>132.9</v>
+      </c>
+      <c r="G11">
+        <v>48.9</v>
+      </c>
+      <c r="H11">
         <v>270.9</v>
       </c>
     </row>
@@ -758,51 +763,51 @@
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12">
+        <v>17.4</v>
+      </c>
+      <c r="C12">
         <v>22.1</v>
       </c>
-      <c r="D12" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="F12" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="D12">
+        <v>8.4</v>
+      </c>
+      <c r="E12">
+        <v>0.79</v>
+      </c>
+      <c r="F12">
+        <v>105.8</v>
+      </c>
+      <c r="G12">
         <v>59.9</v>
       </c>
-      <c r="H12" t="n">
-        <v>186.8</v>
+      <c r="H12">
+        <v>194.7</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>14.6</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>21.6</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>7.4</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>0.66</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>149.2</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>47.7</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>255</v>
       </c>
     </row>
@@ -810,25 +815,25 @@
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>15.5</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>24.4</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>6.8</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>0.73</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>135.5</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>46.8</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>221.6</v>
       </c>
     </row>
@@ -836,25 +841,25 @@
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>17.4</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>27.5</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>9</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>0.68</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>130.9</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>45.8</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>201.9</v>
       </c>
     </row>
@@ -862,143 +867,137 @@
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="n">
-        <v>20</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16">
+        <v>20.3</v>
+      </c>
+      <c r="C16">
         <v>28.8</v>
       </c>
-      <c r="D16" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="F16" t="n">
-        <v>106.8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>176.2</v>
+      <c r="D16">
+        <v>10.2</v>
+      </c>
+      <c r="E16">
+        <v>0.78</v>
+      </c>
+      <c r="F16">
+        <v>110.1</v>
+      </c>
+      <c r="G16">
+        <v>49.6</v>
+      </c>
+      <c r="H16">
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17">
+        <v>22.3</v>
+      </c>
+      <c r="C17">
         <v>28.8</v>
       </c>
-      <c r="D17" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F17" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="D17">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.46</v>
+      </c>
+      <c r="F17">
+        <v>82.7</v>
+      </c>
+      <c r="G17">
         <v>42.8</v>
       </c>
-      <c r="H17" t="n">
-        <v>164.1</v>
+      <c r="H17">
+        <v>162.5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="C18" t="s"/>
-      <c r="D18" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F18" t="n">
-        <v>208.7</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="n">
-        <v>208.7</v>
+      <c r="B18">
+        <v>28.2</v>
+      </c>
+      <c r="D18">
+        <v>28.2</v>
+      </c>
+      <c r="E18">
+        <v>0.49</v>
+      </c>
+      <c r="F18">
+        <v>212.7</v>
+      </c>
+      <c r="H18">
+        <v>212.7</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19">
+        <v>31.4</v>
+      </c>
+      <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>32.2</v>
+      </c>
+      <c r="E19">
         <v>0.44</v>
       </c>
-      <c r="F19" t="n">
-        <v>185.7</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="F19">
+        <v>198.1</v>
+      </c>
+      <c r="G19">
         <v>23</v>
       </c>
-      <c r="H19" t="n">
-        <v>189.8</v>
+      <c r="H19">
+        <v>202.3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="C20" t="s"/>
-      <c r="D20" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F20" t="n">
-        <v>270.4</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="n">
-        <v>270.4</v>
+      <c r="B20">
+        <v>30.4</v>
+      </c>
+      <c r="D20">
+        <v>30.4</v>
+      </c>
+      <c r="E20">
+        <v>0.46</v>
+      </c>
+      <c r="F20">
+        <v>264.3</v>
+      </c>
+      <c r="H20">
+        <v>264.3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>47.2</v>
       </c>
-      <c r="C21" t="s"/>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>47.2</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>0.48</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>272.8</v>
       </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>272.8</v>
       </c>
     </row>
@@ -1006,43 +1005,39 @@
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="C22" t="s"/>
-      <c r="D22" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F22" t="n">
-        <v>267.3</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="n">
-        <v>267.3</v>
+      <c r="B22">
+        <v>37.9</v>
+      </c>
+      <c r="D22">
+        <v>37.9</v>
+      </c>
+      <c r="E22">
+        <v>0.46</v>
+      </c>
+      <c r="F22">
+        <v>268.9</v>
+      </c>
+      <c r="H22">
+        <v>268.9</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>21.1</v>
       </c>
-      <c r="C23" t="s"/>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>21.1</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E23">
+        <v>0.29</v>
+      </c>
+      <c r="F23">
         <v>255.8</v>
       </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>255.8</v>
       </c>
     </row>
@@ -1050,21 +1045,19 @@
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>31.5</v>
       </c>
-      <c r="C24" t="s"/>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>31.5</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>0.75</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>411.2</v>
       </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>411.2</v>
       </c>
     </row>
@@ -1072,21 +1065,19 @@
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>38.1</v>
       </c>
-      <c r="C25" t="s"/>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>38.1</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E25">
+        <v>0.23</v>
+      </c>
+      <c r="F25">
         <v>252.7</v>
       </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>252.7</v>
       </c>
     </row>
@@ -1094,21 +1085,19 @@
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>93.59999999999999</v>
       </c>
-      <c r="C26" t="s"/>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>93.59999999999999</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>0.14</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>436</v>
       </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>436</v>
       </c>
     </row>
@@ -1116,25 +1105,23 @@
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>111.4</v>
       </c>
-      <c r="C27" t="s"/>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>111.4</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>0.12</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>332.4</v>
       </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>332.4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>